--- a/eduardo/Aula 5.xlsx
+++ b/eduardo/Aula 5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Vendedor</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,22 +793,24 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="8">
         <f>DSUM($A1:$G9,$G1,$D16:$E17)</f>
-        <v>8200</v>
+        <v>600</v>
       </c>
       <c r="G17" s="8">
         <f>DAVERAGE($A1:$G9,$G1,$D16:$E17)</f>
-        <v>1640</v>
+        <v>300</v>
       </c>
       <c r="H17" s="8">
         <f>DMAX($A1:$G9,$G1,$D16:$E17)</f>
-        <v>6900</v>
+        <v>300</v>
       </c>
       <c r="I17" s="8">
         <f>DMIN($A1:$G9,$G1,$D16:$E17)</f>
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
@@ -865,7 +867,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.89163567415247647</v>
+        <v>0.10464342892390111</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -874,13 +876,13 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()*(100-1)+1</f>
-        <v>14.83793165552359</v>
+        <v>61.003187810512735</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
